--- a/TestData/TestData1.xlsx
+++ b/TestData/TestData1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RestAssuredFramework\RestAssuredAutomationFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E686576-5E66-4596-9713-7718754FECFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000C2C63-1AD8-4318-BE36-7C548A094713}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{1429377C-E180-4946-9BEC-4995F424C5FD}"/>
   </bookViews>
@@ -121,15 +121,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -137,17 +143,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -469,7 +493,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,71 +531,71 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>1234567897</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>1234567897</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>1234567897</v>
       </c>
     </row>

--- a/TestData/TestData1.xlsx
+++ b/TestData/TestData1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RestAssuredFramework\RestAssuredAutomationFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000C2C63-1AD8-4318-BE36-7C548A094713}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0363D62D-BCA5-4899-8B91-3479F9F7AA76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{1429377C-E180-4946-9BEC-4995F424C5FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>UserID</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>test@3</t>
+  </si>
+  <si>
+    <t>UserStatus</t>
   </si>
 </sst>
 </file>
@@ -163,7 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,6 +177,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -490,10 +494,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C0AF5D-55B4-4A0E-AFF0-7D0E46B68E63}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,9 +509,10 @@
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,8 +534,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
@@ -552,8 +560,11 @@
       <c r="G2" s="2">
         <v>1234567897</v>
       </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2022</v>
       </c>
@@ -575,8 +586,11 @@
       <c r="G3" s="2">
         <v>1234567897</v>
       </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2023</v>
       </c>
@@ -597,6 +611,9 @@
       </c>
       <c r="G4" s="2">
         <v>1234567897</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
